--- a/simulator.xlsx
+++ b/simulator.xlsx
@@ -745,7 +745,7 @@
   <dimension ref="A1:W46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B26" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
